--- a/biology/Zoologie/Acanthodactylus_schmidti/Acanthodactylus_schmidti.xlsx
+++ b/biology/Zoologie/Acanthodactylus_schmidti/Acanthodactylus_schmidti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthodactylus schmidti est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthodactylus schmidti est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Irak, en Jordanie, aux Émirats arabes unis, au Koweït et en Oman[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Irak, en Jordanie, aux Émirats arabes unis, au Koweït et en Oman.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un reptile terrestre vivant dans des milieux arides à désertique. Dans sa description[2] Georg Haas indique que le spécimen en sa possession mesure 24 cm dont 16 cm pour la queue. Il précise que celui-ci est plus grand que les représentants de la sous-espèce Acanthodactylus cantoris arabicus auxquels il le compare.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un reptile terrestre vivant dans des milieux arides à désertique. Dans sa description Georg Haas indique que le spécimen en sa possession mesure 24 cm dont 16 cm pour la queue. Il précise que celui-ci est plus grand que les représentants de la sous-espèce Acanthodactylus cantoris arabicus auxquels il le compare.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce était autrefois considérée comme une sous-espèce d'Acanthodactylus cantoris (sous le nom de Acanthodactylus cantoris schmidti), mais elle a été élevée au rang d'espèce par Edwin Nicholas Arnold en 1980[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce était autrefois considérée comme une sous-espèce d'Acanthodactylus cantoris (sous le nom de Acanthodactylus cantoris schmidti), mais elle a été élevée au rang d'espèce par Edwin Nicholas Arnold en 1980.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste américain Karl Patterson Schmidt (1890-1957)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du zoologiste américain Karl Patterson Schmidt (1890-1957).
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Haas, 1957 : Some amphibians and reptiles from Arabia. Proceedings of the California Academy of Sciences, ser. 4, vol. 29, no 3, p. 47-86 (texte intégral).</t>
         </is>
